--- a/Take Home/Tables/1__Selected Lags All Criteria_a110.95_T50.xlsx
+++ b/Take Home/Tables/1__Selected Lags All Criteria_a110.95_T50.xlsx
@@ -471,28 +471,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>764</v>
+        <v>784</v>
       </c>
       <c r="C2" t="n">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D2" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2" t="n">
         <v>17</v>
       </c>
-      <c r="G2" t="n">
-        <v>19</v>
-      </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -502,28 +502,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="C3" t="n">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D3" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I3" t="n">
         <v>21</v>
-      </c>
-      <c r="H3" t="n">
-        <v>16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981</v>
+        <v>988</v>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -564,28 +564,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>918</v>
+        <v>926</v>
       </c>
       <c r="C5" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
